--- a/biology/Zoologie/Gobemouche_à_face_rousse/Gobemouche_à_face_rousse.xlsx
+++ b/biology/Zoologie/Gobemouche_à_face_rousse/Gobemouche_à_face_rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_face_rousse</t>
+          <t>Gobemouche_à_face_rousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthipes solitaris
-Le Gobemouche à face rousse[1] (Anthipes solitaris) est une espèce d'oiseaux de la famille des Muscicapidae. Cette espèce vit en Asie du Sud-Est, en Indochine, dans la péninsule Malaise et sur l'île de Sumatra.
+Le Gobemouche à face rousse (Anthipes solitaris) est une espèce d'oiseaux de la famille des Muscicapidae. Cette espèce vit en Asie du Sud-Est, en Indochine, dans la péninsule Malaise et sur l'île de Sumatra.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_face_rousse</t>
+          <t>Gobemouche_à_face_rousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre en Birmanie, en Indonésie, au Laos, en Malaisie, en Thaïlande et au Viêt Nam[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre en Birmanie, en Indonésie, au Laos, en Malaisie, en Thaïlande et au Viêt Nam.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_face_rousse</t>
+          <t>Gobemouche_à_face_rousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (1er juin 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (1er juin 2023) :
 Anthipes solitaris malayana (Sharpe, 1888)
 Anthipes solitaris solitaris (Müller, 1836)
 Anthipes solitaris submoniliger Hume, 1877</t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_face_rousse</t>
+          <t>Gobemouche_à_face_rousse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +592,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Anthipes solitaris (S.Muller, 1836)[1].
-L'espèce a été initialement classée dans le genre Muscicapa sous le protonyme Muscicapa solitaris S.Muller, 1836[3]
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Gobemouche à face rousse[1].
-Anthipes solitaris a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Anthipes solitaris (S.Muller, 1836).
+L'espèce a été initialement classée dans le genre Muscicapa sous le protonyme Muscicapa solitaris S.Muller, 1836
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Gobemouche à face rousse.
+Anthipes solitaris a pour synonymes :
 Muscicapa solitaris S.Muller, 1836
 Ficedula solitaris (S.Muller, 1836)</t>
         </is>
